--- a/5.0.0/ValueSet-ndc-no-hyphens.xlsx
+++ b/5.0.0/ValueSet-ndc-no-hyphens.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
